--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -413,7 +413,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">The sea gets deeper the further you go into it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assurance MM1 DCA</t>
   </si>
   <si>
     <t xml:space="preserve">Project MM18</t>
@@ -413,7 +416,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" activeCellId="0" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -733,56 +736,46 @@
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="n">
-        <v>41153</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="n">
-        <v>38504</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>41789</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>41106</v>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -792,9 +785,7 @@
       <c r="B20" s="3" t="n">
         <v>41153</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>41548</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="3" t="n">
         <v>38504</v>
       </c>
@@ -809,36 +800,38 @@
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0</v>
+      <c r="B21" s="3" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>41548</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>38504</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>41789</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>41106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -846,52 +839,69 @@
         <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
     </row>
-    <row r="1046591" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046594" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -206,6 +206,36 @@
   </si>
   <si>
     <t xml:space="preserve">HSMRPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline this quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline ALB/Programme milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline ALB/Programme cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline ALB/Programme benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline IPDC milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline IPDC cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline IPDC benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline HMT milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline HMT cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline HMT benefits</t>
   </si>
 </sst>
 </file>
@@ -416,7 +446,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -901,6 +931,98 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPDC approval point</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,6 +1026,11 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -239,15 +239,43 @@
   </si>
   <si>
     <t xml:space="preserve">IPDC approval point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screw driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Original Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Forecast - Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -336,7 +364,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,6 +390,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,14 +474,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1031,6 +1063,114 @@
       <c r="A37" s="6" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>36527</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>36528</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>36529</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>36530</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>36527</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>36528</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>36529</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>36530</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t xml:space="preserve">Project MM19 Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project stage</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1171,6 +1174,11 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">Project stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRO Schedule Confidence</t>
   </si>
 </sst>
 </file>
@@ -480,11 +483,11 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1178,6 +1181,11 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -182,6 +182,48 @@
   </si>
   <si>
     <t xml:space="preserve">Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of Construction/build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Original Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Forecast - Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43th generation Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material </t>
+  </si>
+  <si>
+    <t xml:space="preserve">listening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streets</t>
   </si>
   <si>
     <t xml:space="preserve">DFT ID Number</t>
@@ -480,14 +522,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -950,251 +992,384 @@
       <c r="B25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="C25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="ALD25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="ALD26" s="0"/>
+      <c r="AMI26" s="0"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>44217</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>44218</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>44219</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>44220</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>44221</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>44222</v>
+      </c>
+      <c r="ALD27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>44218</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>44219</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>44220</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>44221</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>44222</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>44223</v>
+      </c>
+      <c r="ALD28" s="0"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="ALD29" s="0"/>
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="ALD30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="D31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="E31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="F31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="G31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="ALD31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>74</v>
+      <c r="A38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="7" t="n">
+      <c r="F46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="7" t="n">
         <v>36526</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C47" s="7" t="n">
         <v>36527</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D47" s="7" t="n">
         <v>36528</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E47" s="7" t="n">
         <v>36529</v>
       </c>
-      <c r="F40" s="7" t="n">
+      <c r="F47" s="7" t="n">
         <v>36530</v>
       </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="7" t="n">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="7" t="n">
         <v>36526</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C48" s="7" t="n">
         <v>36527</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D48" s="7" t="n">
         <v>36528</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E48" s="7" t="n">
         <v>36529</v>
       </c>
-      <c r="F41" s="7" t="n">
+      <c r="F48" s="7" t="n">
         <v>36530</v>
       </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046594" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046595" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046596" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046597" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046598" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="1046599" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046600" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046601" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2018.xlsx
+++ b/tests/resources/milestones_test_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">SRO Schedule Confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,6 +1371,11 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="1046599" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
